--- a/xlsx/尼亚加拉瀑布_intext.xlsx
+++ b/xlsx/尼亚加拉瀑布_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>尼亚加拉瀑布</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E6%A8%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>座標系統</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_尼亚加拉瀑布</t>
+    <t>座标系统</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_尼亚加拉瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%96%B9%E7%B1%B3</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E6%B9%96</t>
@@ -143,13 +143,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>美國瀑布</t>
+    <t>美国瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E8%89%B2</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E9%81%94%E7%88%BE%E7%B6%AD%E7%88%BE%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>布里達爾維爾瀑布</t>
+    <t>布里达尔维尔瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1160,7 +1157,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1186,10 +1183,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1215,10 +1212,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1244,10 +1241,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1273,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1302,10 +1299,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1331,10 +1328,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1360,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1389,10 +1386,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1418,10 +1415,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1447,10 +1444,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1476,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
